--- a/biology/Zoologie/Enchytraeus_buchholzi/Enchytraeus_buchholzi.xlsx
+++ b/biology/Zoologie/Enchytraeus_buchholzi/Enchytraeus_buchholzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enchytraeus buchholzi ou Ver grindal est une espèce d'annélides. C'est un ver blanc aquatique d’environ 16 mm de longueur.
 Il constitue une excellente nourriture vivante en aquariophilie d'eau douce, très utilisée car très riche et appréciée par presque tous les poissons.
